--- a/division_overview.xlsx
+++ b/division_overview.xlsx
@@ -9,13 +9,16 @@
   <sheets>
     <sheet name="Division Earnings" sheetId="1" r:id="rId1"/>
     <sheet name="Division Targets" sheetId="2" r:id="rId2"/>
+    <sheet name="Goods Outward" sheetId="3" r:id="rId3"/>
+    <sheet name="Goods Depowise OW" sheetId="4" r:id="rId4"/>
+    <sheet name="Goods Commoditywise OW" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="55">
   <si>
     <t>earning_month</t>
   </si>
@@ -53,6 +56,15 @@
     <t>total_passengers</t>
   </si>
   <si>
+    <t>sub_passengers</t>
+  </si>
+  <si>
+    <t>non_sub_passengers</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>pune</t>
   </si>
   <si>
@@ -62,10 +74,115 @@
     <t>non_sub_pass</t>
   </si>
   <si>
-    <t>sub_passengers</t>
-  </si>
-  <si>
-    <t>non_sub_passengers</t>
+    <t>rakes</t>
+  </si>
+  <si>
+    <t>wagon</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>earning_year</t>
+  </si>
+  <si>
+    <t>station_code</t>
+  </si>
+  <si>
+    <t>cch</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>grmt</t>
+  </si>
+  <si>
+    <t>loni</t>
+  </si>
+  <si>
+    <t>brmt</t>
+  </si>
+  <si>
+    <t>sli</t>
+  </si>
+  <si>
+    <t>mrj</t>
+  </si>
+  <si>
+    <t>krd</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>lnn</t>
+  </si>
+  <si>
+    <t>ssv</t>
+  </si>
+  <si>
+    <t>hplg</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>SUGAR</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>DRY GRASS</t>
+  </si>
+  <si>
+    <t>AUTOMOBILE</t>
+  </si>
+  <si>
+    <t>IRON ORE</t>
+  </si>
+  <si>
+    <t>PIG IRON</t>
+  </si>
+  <si>
+    <t>BENTONITE POWDER</t>
+  </si>
+  <si>
+    <t>CEMENT</t>
+  </si>
+  <si>
+    <t>FOODGRAIN</t>
+  </si>
+  <si>
+    <t>IRON STEEL</t>
+  </si>
+  <si>
+    <t>FURNACE OIL</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>FERTILIZER</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>CONCOR</t>
+  </si>
+  <si>
+    <t>EMPTY CONTAINER</t>
+  </si>
+  <si>
+    <t>EMPTY HAULAGE RAKE</t>
+  </si>
+  <si>
+    <t>FLY ASH</t>
+  </si>
+  <si>
+    <t>JAGGERY</t>
   </si>
 </sst>
 </file>
@@ -427,13 +544,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,418 +587,517 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2">
-        <v>44652</v>
+        <v>45292</v>
       </c>
       <c r="C2">
-        <v>0.65</v>
+        <v>1.13</v>
       </c>
       <c r="D2">
-        <v>1.79</v>
+        <v>167.37</v>
       </c>
       <c r="E2">
-        <v>70.61</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="F2">
-        <v>73.05</v>
+        <v>106.67</v>
       </c>
       <c r="G2">
-        <v>28.34</v>
+        <v>28.05</v>
       </c>
       <c r="H2">
-        <v>8.58</v>
+        <v>9.77</v>
       </c>
       <c r="I2">
-        <v>109.97</v>
+        <v>144.49</v>
       </c>
       <c r="J2">
-        <v>0.76</v>
+        <v>1.33</v>
       </c>
       <c r="K2">
-        <v>110.72</v>
+        <v>145.83</v>
       </c>
       <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>47.5</v>
+      </c>
+      <c r="N2">
+        <v>18.56</v>
+      </c>
+      <c r="O2">
+        <v>28.94</v>
+      </c>
+      <c r="P2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45261</v>
+      </c>
+      <c r="C3">
+        <v>1.1</v>
+      </c>
+      <c r="D3">
+        <v>16.35</v>
+      </c>
+      <c r="E3">
+        <v>90.56</v>
+      </c>
+      <c r="F3">
+        <v>108.01</v>
+      </c>
+      <c r="G3">
+        <v>40.69</v>
+      </c>
+      <c r="H3">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I3">
+        <v>158</v>
+      </c>
+      <c r="J3">
+        <v>1.99</v>
+      </c>
+      <c r="K3">
+        <v>159.99</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>46.76</v>
+      </c>
+      <c r="N3">
+        <v>17.16</v>
+      </c>
+      <c r="O3">
+        <v>29.93</v>
+      </c>
+      <c r="P3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45231</v>
+      </c>
+      <c r="C4">
+        <v>1.08</v>
+      </c>
+      <c r="D4">
+        <v>20.52</v>
+      </c>
+      <c r="E4">
+        <v>78.16</v>
+      </c>
+      <c r="F4">
+        <v>99.76000000000001</v>
+      </c>
+      <c r="G4">
+        <v>31.11</v>
+      </c>
+      <c r="H4">
+        <v>11.23</v>
+      </c>
+      <c r="I4">
+        <v>142.1</v>
+      </c>
+      <c r="J4">
+        <v>1.65</v>
+      </c>
+      <c r="K4">
+        <v>143.75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>46.99</v>
+      </c>
+      <c r="N4">
+        <v>17.07</v>
+      </c>
+      <c r="O4">
+        <v>29.93</v>
+      </c>
+      <c r="P4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45200</v>
+      </c>
+      <c r="C5">
+        <v>1.13</v>
+      </c>
+      <c r="D5">
+        <v>15.61</v>
+      </c>
+      <c r="E5">
+        <v>82.79000000000001</v>
+      </c>
+      <c r="F5">
+        <v>99.53</v>
+      </c>
+      <c r="G5">
+        <v>42.38</v>
+      </c>
+      <c r="H5">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="I5">
+        <v>151.78</v>
+      </c>
+      <c r="J5">
+        <v>1.07</v>
+      </c>
+      <c r="K5">
+        <v>152.86</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>47.09</v>
+      </c>
+      <c r="N5">
+        <v>18.92</v>
+      </c>
+      <c r="O5">
+        <v>28.17</v>
+      </c>
+      <c r="P5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45170</v>
+      </c>
+      <c r="C6">
+        <v>1.16</v>
+      </c>
+      <c r="D6">
+        <v>15.3</v>
+      </c>
+      <c r="E6">
+        <v>79.61</v>
+      </c>
+      <c r="F6">
+        <v>96.08</v>
+      </c>
+      <c r="G6">
+        <v>40.17</v>
+      </c>
+      <c r="H6">
+        <v>11.35</v>
+      </c>
+      <c r="I6">
+        <v>147.6</v>
+      </c>
+      <c r="J6">
+        <v>1.58</v>
+      </c>
+      <c r="K6">
+        <v>149.18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>46.4</v>
+      </c>
+      <c r="N6">
+        <v>18.96</v>
+      </c>
+      <c r="O6">
+        <v>29.2</v>
+      </c>
+      <c r="P6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45139</v>
+      </c>
+      <c r="C7">
+        <v>1.27</v>
+      </c>
+      <c r="D7">
+        <v>15.63</v>
+      </c>
+      <c r="E7">
+        <v>87.97</v>
+      </c>
+      <c r="F7">
+        <v>104.87</v>
+      </c>
+      <c r="G7">
+        <v>43.98</v>
+      </c>
+      <c r="H7">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="I7">
+        <v>158.39</v>
+      </c>
+      <c r="J7">
+        <v>1.86</v>
+      </c>
+      <c r="K7">
+        <v>160.25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>49.23</v>
+      </c>
+      <c r="N7">
+        <v>20.03</v>
+      </c>
+      <c r="O7">
+        <v>29.2</v>
+      </c>
+      <c r="P7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45108</v>
+      </c>
+      <c r="C8">
+        <v>1.31</v>
+      </c>
+      <c r="D8">
+        <v>14.48</v>
+      </c>
+      <c r="E8">
+        <v>102.8</v>
+      </c>
+      <c r="F8">
+        <v>118.58</v>
+      </c>
+      <c r="G8">
+        <v>34.99</v>
+      </c>
+      <c r="H8">
+        <v>9.23</v>
+      </c>
+      <c r="I8">
+        <v>162.8</v>
+      </c>
+      <c r="J8">
+        <v>1.86</v>
+      </c>
+      <c r="K8">
+        <v>164.67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>47.6</v>
+      </c>
+      <c r="N8">
+        <v>18.94</v>
+      </c>
+      <c r="O8">
+        <v>28.67</v>
+      </c>
+      <c r="P8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45078</v>
+      </c>
+      <c r="C9">
+        <v>1.13</v>
+      </c>
+      <c r="D9">
+        <v>16.26</v>
+      </c>
+      <c r="E9">
+        <v>72.58</v>
+      </c>
+      <c r="F9">
+        <v>89.98</v>
+      </c>
+      <c r="G9">
+        <v>36.14</v>
+      </c>
+      <c r="H9">
+        <v>10.1</v>
+      </c>
+      <c r="I9">
+        <v>136.22</v>
+      </c>
+      <c r="J9">
+        <v>1.78</v>
+      </c>
+      <c r="K9">
+        <v>137.99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>43.93</v>
+      </c>
+      <c r="N9">
+        <v>17.41</v>
+      </c>
+      <c r="O9">
+        <v>26.52</v>
+      </c>
+      <c r="P9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1">
         <v>12</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44682</v>
-      </c>
-      <c r="C3">
-        <v>0.84</v>
-      </c>
-      <c r="D3">
-        <v>2.6</v>
-      </c>
-      <c r="E3">
-        <v>72.3</v>
-      </c>
-      <c r="F3">
-        <v>75.73999999999999</v>
-      </c>
-      <c r="G3">
-        <v>25.69</v>
-      </c>
-      <c r="H3">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="I3">
-        <v>111.05</v>
-      </c>
-      <c r="J3">
-        <v>0.55</v>
-      </c>
-      <c r="K3">
-        <v>111.61</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="B10" s="2">
+        <v>45047</v>
+      </c>
+      <c r="C10">
+        <v>1.19</v>
+      </c>
+      <c r="D10">
+        <v>19.2</v>
+      </c>
+      <c r="E10">
+        <v>73.73</v>
+      </c>
+      <c r="F10">
+        <v>94.12</v>
+      </c>
+      <c r="G10">
+        <v>28.04</v>
+      </c>
+      <c r="H10">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="I10">
+        <v>132.1</v>
+      </c>
+      <c r="J10">
+        <v>1.31</v>
+      </c>
+      <c r="K10">
+        <v>133.42</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>46.8</v>
+      </c>
+      <c r="N10">
+        <v>17.78</v>
+      </c>
+      <c r="O10">
+        <v>29.02</v>
+      </c>
+      <c r="P10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45017</v>
+      </c>
+      <c r="C11">
+        <v>1.08</v>
+      </c>
+      <c r="D11">
+        <v>17.52</v>
+      </c>
+      <c r="E11">
+        <v>69.48</v>
+      </c>
+      <c r="F11">
+        <v>88.08</v>
+      </c>
+      <c r="G11">
+        <v>30.74</v>
+      </c>
+      <c r="H11">
+        <v>9.81</v>
+      </c>
+      <c r="I11">
+        <v>128.63</v>
+      </c>
+      <c r="J11">
+        <v>1.23</v>
+      </c>
+      <c r="K11">
+        <v>129.86</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>44.02959</v>
+      </c>
+      <c r="N11">
+        <v>16.99</v>
+      </c>
+      <c r="O11">
+        <v>27.04</v>
+      </c>
+      <c r="P11">
         <v>12</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44713</v>
-      </c>
-      <c r="C4">
-        <v>0.86</v>
-      </c>
-      <c r="D4">
-        <v>3.14</v>
-      </c>
-      <c r="E4">
-        <v>73.73999999999999</v>
-      </c>
-      <c r="F4">
-        <v>77.73999999999999</v>
-      </c>
-      <c r="G4">
-        <v>35.26</v>
-      </c>
-      <c r="H4">
-        <v>11.64</v>
-      </c>
-      <c r="I4">
-        <v>124.64</v>
-      </c>
-      <c r="J4">
-        <v>1.14</v>
-      </c>
-      <c r="K4">
-        <v>125.78</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44774</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>10.66</v>
-      </c>
-      <c r="E5">
-        <v>74.06999999999999</v>
-      </c>
-      <c r="F5">
-        <v>85.73</v>
-      </c>
-      <c r="G5">
-        <v>34.4</v>
-      </c>
-      <c r="H5">
-        <v>7.83</v>
-      </c>
-      <c r="I5">
-        <v>127.95</v>
-      </c>
-      <c r="J5">
-        <v>1.27</v>
-      </c>
-      <c r="K5">
-        <v>129.22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44805</v>
-      </c>
-      <c r="C6">
-        <v>1.02</v>
-      </c>
-      <c r="D6">
-        <v>11.72</v>
-      </c>
-      <c r="E6">
-        <v>73.28</v>
-      </c>
-      <c r="F6">
-        <v>86.01000000000001</v>
-      </c>
-      <c r="G6">
-        <v>38.91</v>
-      </c>
-      <c r="H6">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="I6">
-        <v>133.28</v>
-      </c>
-      <c r="J6">
-        <v>2.95</v>
-      </c>
-      <c r="K6">
-        <v>136.23</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>15.36</v>
-      </c>
-      <c r="E7">
-        <v>63.43</v>
-      </c>
-      <c r="F7">
-        <v>79.79000000000001</v>
-      </c>
-      <c r="G7">
-        <v>30.02</v>
-      </c>
-      <c r="H7">
-        <v>9.57</v>
-      </c>
-      <c r="I7">
-        <v>119.39</v>
-      </c>
-      <c r="J7">
-        <v>0.99</v>
-      </c>
-      <c r="K7">
-        <v>120.38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44866</v>
-      </c>
-      <c r="C8">
-        <v>1.08</v>
-      </c>
-      <c r="D8">
-        <v>14.4</v>
-      </c>
-      <c r="E8">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="F8">
-        <v>90.8</v>
-      </c>
-      <c r="G8">
-        <v>43.15</v>
-      </c>
-      <c r="H8">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="I8">
-        <v>142.6</v>
-      </c>
-      <c r="J8">
-        <v>2.13</v>
-      </c>
-      <c r="K8">
-        <v>144.73</v>
-      </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>44896</v>
-      </c>
-      <c r="C9">
-        <v>1.06</v>
-      </c>
-      <c r="D9">
-        <v>15.19</v>
-      </c>
-      <c r="E9">
-        <v>75.17</v>
-      </c>
-      <c r="F9">
-        <v>91.42</v>
-      </c>
-      <c r="G9">
-        <v>36.83</v>
-      </c>
-      <c r="H9">
-        <v>9.08</v>
-      </c>
-      <c r="I9">
-        <v>137.33</v>
-      </c>
-      <c r="J9">
-        <v>1.95</v>
-      </c>
-      <c r="K9">
-        <v>139.28</v>
-      </c>
-      <c r="L9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C10">
-        <v>0.99</v>
-      </c>
-      <c r="D10">
-        <v>14.92</v>
-      </c>
-      <c r="E10">
-        <v>78.5</v>
-      </c>
-      <c r="F10">
-        <v>93.45</v>
-      </c>
-      <c r="G10">
-        <v>28.82</v>
-      </c>
-      <c r="H10">
-        <v>7.98</v>
-      </c>
-      <c r="I10">
-        <v>130.25</v>
-      </c>
-      <c r="J10">
-        <v>1.1</v>
-      </c>
-      <c r="K10">
-        <v>131.35</v>
-      </c>
-      <c r="L10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44958</v>
-      </c>
-      <c r="C11">
-        <v>0.97</v>
-      </c>
-      <c r="D11">
-        <v>14.42</v>
-      </c>
-      <c r="E11">
-        <v>73.47</v>
-      </c>
-      <c r="F11">
-        <v>88.86</v>
-      </c>
-      <c r="G11">
-        <v>28.25</v>
-      </c>
-      <c r="H11">
-        <v>7.55</v>
-      </c>
-      <c r="I11">
-        <v>124.66</v>
-      </c>
-      <c r="J11">
-        <v>1.99</v>
-      </c>
-      <c r="K11">
-        <v>126.65</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -916,461 +1132,569 @@
         <v>137.1</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>44.25</v>
+      </c>
+      <c r="N12">
+        <v>17.33</v>
+      </c>
+      <c r="O12">
+        <v>24.54</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="C13">
+        <v>0.97</v>
+      </c>
+      <c r="D13">
+        <v>14.42</v>
+      </c>
+      <c r="E13">
+        <v>73.47</v>
+      </c>
+      <c r="F13">
+        <v>88.86</v>
+      </c>
+      <c r="G13">
+        <v>28.25</v>
+      </c>
+      <c r="H13">
+        <v>7.55</v>
+      </c>
+      <c r="I13">
+        <v>124.66</v>
+      </c>
+      <c r="J13">
+        <v>1.99</v>
+      </c>
+      <c r="K13">
+        <v>126.65</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>40.95</v>
+      </c>
+      <c r="N13">
+        <v>16.41</v>
+      </c>
+      <c r="O13">
+        <v>24.54</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C14">
+        <v>0.99</v>
+      </c>
+      <c r="D14">
+        <v>14.92</v>
+      </c>
+      <c r="E14">
+        <v>78.5</v>
+      </c>
+      <c r="F14">
+        <v>93.45</v>
+      </c>
+      <c r="G14">
+        <v>28.82</v>
+      </c>
+      <c r="H14">
+        <v>7.98</v>
+      </c>
+      <c r="I14">
+        <v>130.25</v>
+      </c>
+      <c r="J14">
+        <v>1.1</v>
+      </c>
+      <c r="K14">
+        <v>131.35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14">
+        <v>45.22</v>
+      </c>
+      <c r="N14">
+        <v>17.63</v>
+      </c>
+      <c r="O14">
+        <v>27.58</v>
+      </c>
+      <c r="P14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44896</v>
+      </c>
+      <c r="C15">
+        <v>1.06</v>
+      </c>
+      <c r="D15">
+        <v>15.19</v>
+      </c>
+      <c r="E15">
+        <v>75.17</v>
+      </c>
+      <c r="F15">
+        <v>91.42</v>
+      </c>
+      <c r="G15">
+        <v>36.83</v>
+      </c>
+      <c r="H15">
+        <v>9.08</v>
+      </c>
+      <c r="I15">
+        <v>137.33</v>
+      </c>
+      <c r="J15">
+        <v>1.95</v>
+      </c>
+      <c r="K15">
+        <v>139.28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15">
+        <v>44.72</v>
+      </c>
+      <c r="N15">
+        <v>17.72</v>
+      </c>
+      <c r="O15">
+        <v>27</v>
+      </c>
+      <c r="P15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44866</v>
+      </c>
+      <c r="C16">
         <v>1.08</v>
       </c>
-      <c r="D13">
-        <v>17.52</v>
-      </c>
-      <c r="E13">
-        <v>69.48</v>
-      </c>
-      <c r="F13">
-        <v>88.08</v>
-      </c>
-      <c r="G13">
-        <v>30.74</v>
-      </c>
-      <c r="H13">
-        <v>9.81</v>
-      </c>
-      <c r="I13">
-        <v>128.63</v>
-      </c>
-      <c r="J13">
-        <v>1.23</v>
-      </c>
-      <c r="K13">
-        <v>129.86</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45047</v>
-      </c>
-      <c r="C14">
-        <v>1.19</v>
-      </c>
-      <c r="D14">
-        <v>19.2</v>
-      </c>
-      <c r="E14">
-        <v>73.73</v>
-      </c>
-      <c r="F14">
-        <v>94.12</v>
-      </c>
-      <c r="G14">
-        <v>28.04</v>
-      </c>
-      <c r="H14">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="I14">
-        <v>132.1</v>
-      </c>
-      <c r="J14">
-        <v>1.31</v>
-      </c>
-      <c r="K14">
-        <v>133.42</v>
-      </c>
-      <c r="L14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>45078</v>
-      </c>
-      <c r="C15">
-        <v>1.13</v>
-      </c>
-      <c r="D15">
-        <v>16.26</v>
-      </c>
-      <c r="E15">
-        <v>72.58</v>
-      </c>
-      <c r="F15">
-        <v>89.98</v>
-      </c>
-      <c r="G15">
-        <v>36.14</v>
-      </c>
-      <c r="H15">
-        <v>10.1</v>
-      </c>
-      <c r="I15">
-        <v>136.22</v>
-      </c>
-      <c r="J15">
-        <v>1.78</v>
-      </c>
-      <c r="K15">
-        <v>137.99</v>
-      </c>
-      <c r="L15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>45139</v>
-      </c>
-      <c r="C16">
+      <c r="D16">
+        <v>14.4</v>
+      </c>
+      <c r="E16">
+        <v>75.31999999999999</v>
+      </c>
+      <c r="F16">
+        <v>90.8</v>
+      </c>
+      <c r="G16">
+        <v>43.15</v>
+      </c>
+      <c r="H16">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="I16">
+        <v>142.6</v>
+      </c>
+      <c r="J16">
+        <v>2.13</v>
+      </c>
+      <c r="K16">
+        <v>144.73</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>46</v>
+      </c>
+      <c r="N16">
+        <v>18.49</v>
+      </c>
+      <c r="O16">
+        <v>27.51</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>15.36</v>
+      </c>
+      <c r="E17">
+        <v>63.43</v>
+      </c>
+      <c r="F17">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="G17">
+        <v>30.02</v>
+      </c>
+      <c r="H17">
+        <v>9.57</v>
+      </c>
+      <c r="I17">
+        <v>119.39</v>
+      </c>
+      <c r="J17">
+        <v>0.99</v>
+      </c>
+      <c r="K17">
+        <v>120.38</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>41.56</v>
+      </c>
+      <c r="N17">
+        <v>16.11</v>
+      </c>
+      <c r="O17">
+        <v>25.45</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44805</v>
+      </c>
+      <c r="C18">
+        <v>1.02</v>
+      </c>
+      <c r="D18">
+        <v>11.72</v>
+      </c>
+      <c r="E18">
+        <v>73.28</v>
+      </c>
+      <c r="F18">
+        <v>86.01000000000001</v>
+      </c>
+      <c r="G18">
+        <v>38.91</v>
+      </c>
+      <c r="H18">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="I18">
+        <v>133.28</v>
+      </c>
+      <c r="J18">
+        <v>2.95</v>
+      </c>
+      <c r="K18">
+        <v>136.23</v>
+      </c>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <v>42.09</v>
+      </c>
+      <c r="N18">
+        <v>17.57</v>
+      </c>
+      <c r="O18">
+        <v>24.53</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44774</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>10.66</v>
+      </c>
+      <c r="E19">
+        <v>74.06999999999999</v>
+      </c>
+      <c r="F19">
+        <v>85.73</v>
+      </c>
+      <c r="G19">
+        <v>34.4</v>
+      </c>
+      <c r="H19">
+        <v>7.83</v>
+      </c>
+      <c r="I19">
+        <v>127.95</v>
+      </c>
+      <c r="J19">
         <v>1.27</v>
       </c>
-      <c r="D16">
-        <v>15.63</v>
-      </c>
-      <c r="E16">
-        <v>87.97</v>
-      </c>
-      <c r="F16">
-        <v>104.87</v>
-      </c>
-      <c r="G16">
-        <v>43.98</v>
-      </c>
-      <c r="H16">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="I16">
-        <v>158.39</v>
-      </c>
-      <c r="J16">
-        <v>1.86</v>
-      </c>
-      <c r="K16">
-        <v>160.25</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>45170</v>
-      </c>
-      <c r="C17">
-        <v>1.16</v>
-      </c>
-      <c r="D17">
-        <v>15.3</v>
-      </c>
-      <c r="E17">
-        <v>79.61</v>
-      </c>
-      <c r="F17">
-        <v>96.08</v>
-      </c>
-      <c r="G17">
-        <v>40.17</v>
-      </c>
-      <c r="H17">
-        <v>11.35</v>
-      </c>
-      <c r="I17">
-        <v>147.6</v>
-      </c>
-      <c r="J17">
-        <v>1.58</v>
-      </c>
-      <c r="K17">
-        <v>149.18</v>
-      </c>
-      <c r="L17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>45200</v>
-      </c>
-      <c r="C18">
-        <v>1.13</v>
-      </c>
-      <c r="D18">
-        <v>15.61</v>
-      </c>
-      <c r="E18">
-        <v>82.79000000000001</v>
-      </c>
-      <c r="F18">
-        <v>99.53</v>
-      </c>
-      <c r="G18">
-        <v>42.38</v>
-      </c>
-      <c r="H18">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="I18">
-        <v>151.78</v>
-      </c>
-      <c r="J18">
-        <v>1.07</v>
-      </c>
-      <c r="K18">
-        <v>152.86</v>
-      </c>
-      <c r="L18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>45231</v>
-      </c>
-      <c r="C19">
-        <v>1.08</v>
-      </c>
-      <c r="D19">
-        <v>20.52</v>
-      </c>
-      <c r="E19">
-        <v>78.16</v>
-      </c>
-      <c r="F19">
-        <v>99.76000000000001</v>
-      </c>
-      <c r="G19">
-        <v>31.11</v>
-      </c>
-      <c r="H19">
-        <v>11.23</v>
-      </c>
-      <c r="I19">
-        <v>142.1</v>
-      </c>
-      <c r="J19">
-        <v>1.65</v>
-      </c>
       <c r="K19">
-        <v>143.75</v>
+        <v>129.22</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>38.74</v>
+      </c>
+      <c r="N19">
+        <v>15.67</v>
+      </c>
+      <c r="O19">
+        <v>23.07</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>45261</v>
+        <v>44743</v>
       </c>
       <c r="C20">
-        <v>1.1</v>
+        <v>0.93</v>
       </c>
       <c r="D20">
-        <v>16.35</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E20">
-        <v>90.56</v>
+        <v>78.5</v>
       </c>
       <c r="F20">
-        <v>108.01</v>
+        <v>88.3</v>
       </c>
       <c r="G20">
-        <v>40.69</v>
+        <v>40.54</v>
       </c>
       <c r="H20">
-        <v>9.300000000000001</v>
+        <v>9.07</v>
       </c>
       <c r="I20">
-        <v>158</v>
+        <v>137.91</v>
       </c>
       <c r="J20">
-        <v>1.99</v>
+        <v>0.71</v>
       </c>
       <c r="K20">
-        <v>159.99</v>
+        <v>138.62</v>
       </c>
       <c r="L20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>36.37</v>
+      </c>
+      <c r="N20">
+        <v>14.24</v>
+      </c>
+      <c r="O20">
+        <v>22.13</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="C21">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="D21">
-        <v>8.869999999999999</v>
+        <v>3.14</v>
       </c>
       <c r="E21">
-        <v>78.5</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="F21">
-        <v>88.3</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="G21">
-        <v>40.54</v>
+        <v>35.26</v>
       </c>
       <c r="H21">
-        <v>9.07</v>
+        <v>11.64</v>
       </c>
       <c r="I21">
-        <v>137.91</v>
+        <v>124.64</v>
       </c>
       <c r="J21">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="K21">
-        <v>138.62</v>
+        <v>125.78</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>33.09</v>
+      </c>
+      <c r="N21">
+        <v>14.02</v>
+      </c>
+      <c r="O21">
+        <v>19.08</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2">
-        <v>45108</v>
+        <v>44682</v>
       </c>
       <c r="C22">
-        <v>1.31</v>
+        <v>0.84</v>
       </c>
       <c r="D22">
-        <v>14.48</v>
+        <v>2.6</v>
       </c>
       <c r="E22">
-        <v>102.8</v>
+        <v>72.3</v>
       </c>
       <c r="F22">
-        <v>118.58</v>
+        <v>75.73999999999999</v>
       </c>
       <c r="G22">
-        <v>34.99</v>
+        <v>25.69</v>
       </c>
       <c r="H22">
-        <v>9.23</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I22">
-        <v>162.8</v>
+        <v>111.05</v>
       </c>
       <c r="J22">
-        <v>1.86</v>
+        <v>0.55</v>
       </c>
       <c r="K22">
-        <v>164.67</v>
+        <v>111.61</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>31.91386</v>
+      </c>
+      <c r="N22">
+        <v>13.59</v>
+      </c>
+      <c r="O22">
+        <v>18.32</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B23" s="2">
-        <v>45292</v>
+        <v>44652</v>
       </c>
       <c r="C23">
-        <v>1.13</v>
+        <v>0.65</v>
       </c>
       <c r="D23">
-        <v>167.37</v>
+        <v>1.79</v>
       </c>
       <c r="E23">
-        <v>89.04000000000001</v>
+        <v>70.61</v>
       </c>
       <c r="F23">
-        <v>106.67</v>
+        <v>73.05</v>
       </c>
       <c r="G23">
-        <v>28.05</v>
+        <v>28.34</v>
       </c>
       <c r="H23">
-        <v>9.77</v>
+        <v>8.58</v>
       </c>
       <c r="I23">
-        <v>144.49</v>
+        <v>109.97</v>
       </c>
       <c r="J23">
-        <v>1.33</v>
+        <v>0.76</v>
       </c>
       <c r="K23">
-        <v>145.83</v>
+        <v>110.72</v>
       </c>
       <c r="L23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>29.13111</v>
+      </c>
+      <c r="N23">
+        <v>11.39</v>
+      </c>
+      <c r="O23">
+        <v>17.74</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1712,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1397,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1418,10 +1742,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -1474,7 +1798,7 @@
         <v>3.37</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1521,7 +1845,7 @@
         <v>3.69</v>
       </c>
       <c r="O3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1568,7 +1892,7 @@
         <v>3.85</v>
       </c>
       <c r="O4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1615,7 +1939,7 @@
         <v>4.2</v>
       </c>
       <c r="O5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1662,7 +1986,7 @@
         <v>4.5</v>
       </c>
       <c r="O6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1709,7 +2033,7 @@
         <v>4.89</v>
       </c>
       <c r="O7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1756,7 +2080,7 @@
         <v>4.83</v>
       </c>
       <c r="O8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1803,7 +2127,7 @@
         <v>5.35</v>
       </c>
       <c r="O9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1850,7 +2174,7 @@
         <v>5.22</v>
       </c>
       <c r="O10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1897,7 +2221,7 @@
         <v>5.27</v>
       </c>
       <c r="O11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1944,7 +2268,7 @@
         <v>4.76</v>
       </c>
       <c r="O12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1991,7 +2315,2491 @@
         <v>5.13</v>
       </c>
       <c r="O13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+      <c r="E2">
+        <v>3845</v>
+      </c>
+      <c r="F2">
+        <v>210178</v>
+      </c>
+      <c r="G2">
+        <v>28.05</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45261</v>
+      </c>
+      <c r="D3">
+        <v>165</v>
+      </c>
+      <c r="E3">
+        <v>5246</v>
+      </c>
+      <c r="F3">
+        <v>283081</v>
+      </c>
+      <c r="G3">
+        <v>40.7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45231</v>
+      </c>
+      <c r="D4">
+        <v>145</v>
+      </c>
+      <c r="E4">
+        <v>4420</v>
+      </c>
+      <c r="F4">
+        <v>237044</v>
+      </c>
+      <c r="G4">
+        <v>31.41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D5">
+        <v>157</v>
+      </c>
+      <c r="E5">
+        <v>4968</v>
+      </c>
+      <c r="F5">
+        <v>273103</v>
+      </c>
+      <c r="G5">
+        <v>42.38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45170</v>
+      </c>
+      <c r="D6">
+        <v>154</v>
+      </c>
+      <c r="E6">
+        <v>5063</v>
+      </c>
+      <c r="F6">
+        <v>275127</v>
+      </c>
+      <c r="G6">
+        <v>40.17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45139</v>
+      </c>
+      <c r="D7">
+        <v>159</v>
+      </c>
+      <c r="E7">
+        <v>5343</v>
+      </c>
+      <c r="F7">
+        <v>284036</v>
+      </c>
+      <c r="G7">
+        <v>43.98</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45108</v>
+      </c>
+      <c r="D8">
+        <v>124</v>
+      </c>
+      <c r="E8">
+        <v>4088</v>
+      </c>
+      <c r="F8">
+        <v>211153</v>
+      </c>
+      <c r="G8">
+        <v>34.99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45078</v>
+      </c>
+      <c r="D9">
+        <v>140</v>
+      </c>
+      <c r="E9">
+        <v>4185</v>
+      </c>
+      <c r="F9">
+        <v>221824</v>
+      </c>
+      <c r="G9">
+        <v>36.14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D10">
+        <v>115</v>
+      </c>
+      <c r="E10">
+        <v>3581</v>
+      </c>
+      <c r="F10">
+        <v>189695</v>
+      </c>
+      <c r="G10">
+        <v>28.04</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>12</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45017</v>
+      </c>
+      <c r="D11">
+        <v>142</v>
+      </c>
+      <c r="E11">
+        <v>4350</v>
+      </c>
+      <c r="F11">
+        <v>233882</v>
+      </c>
+      <c r="G11">
+        <v>30.76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44986</v>
+      </c>
+      <c r="D12">
+        <v>124</v>
+      </c>
+      <c r="E12">
+        <v>4089</v>
+      </c>
+      <c r="F12">
+        <v>215196</v>
+      </c>
+      <c r="G12">
+        <v>32.9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44958</v>
+      </c>
+      <c r="D13">
+        <v>118</v>
+      </c>
+      <c r="E13">
+        <v>4006</v>
+      </c>
+      <c r="F13">
+        <v>212007</v>
+      </c>
+      <c r="G13">
+        <v>28.3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44927</v>
+      </c>
+      <c r="D14">
+        <v>119</v>
+      </c>
+      <c r="E14">
+        <v>4000</v>
+      </c>
+      <c r="F14">
+        <v>220158</v>
+      </c>
+      <c r="G14">
+        <v>28.8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44896</v>
+      </c>
+      <c r="D15">
+        <v>160</v>
+      </c>
+      <c r="E15">
+        <v>5269</v>
+      </c>
+      <c r="F15">
+        <v>286256</v>
+      </c>
+      <c r="G15">
+        <v>36.8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44866</v>
+      </c>
+      <c r="D16">
+        <v>153</v>
+      </c>
+      <c r="E16">
+        <v>5318</v>
+      </c>
+      <c r="F16">
+        <v>297599</v>
+      </c>
+      <c r="G16">
+        <v>43.2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D17">
+        <v>114</v>
+      </c>
+      <c r="E17">
+        <v>3657</v>
+      </c>
+      <c r="F17">
+        <v>194591</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D18">
+        <v>155</v>
+      </c>
+      <c r="E18">
+        <v>5216</v>
+      </c>
+      <c r="F18">
+        <v>284035</v>
+      </c>
+      <c r="G18">
+        <v>38.9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D19">
+        <v>167</v>
+      </c>
+      <c r="E19">
+        <v>5350</v>
+      </c>
+      <c r="F19">
+        <v>288285</v>
+      </c>
+      <c r="G19">
+        <v>34.4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D20">
+        <v>145</v>
+      </c>
+      <c r="E20">
+        <v>5102</v>
+      </c>
+      <c r="F20">
+        <v>282567</v>
+      </c>
+      <c r="G20">
+        <v>40.5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44713</v>
+      </c>
+      <c r="D21">
+        <v>138</v>
+      </c>
+      <c r="E21">
+        <v>4886</v>
+      </c>
+      <c r="F21">
+        <v>281327</v>
+      </c>
+      <c r="G21">
+        <v>35.3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44682</v>
+      </c>
+      <c r="D22">
+        <v>125</v>
+      </c>
+      <c r="E22">
+        <v>4405</v>
+      </c>
+      <c r="F22">
+        <v>253327</v>
+      </c>
+      <c r="G22">
+        <v>25.7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44652</v>
+      </c>
+      <c r="D23">
+        <v>139</v>
+      </c>
+      <c r="E23">
+        <v>4733</v>
+      </c>
+      <c r="F23">
+        <v>268063</v>
+      </c>
+      <c r="G23">
+        <v>28.3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D2">
+        <v>410</v>
+      </c>
+      <c r="E2">
+        <v>10609</v>
+      </c>
+      <c r="F2">
+        <v>503528</v>
+      </c>
+      <c r="G2">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D3">
+        <v>149</v>
+      </c>
+      <c r="E3">
+        <v>3532</v>
+      </c>
+      <c r="F3">
+        <v>207874</v>
+      </c>
+      <c r="G3">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D4">
+        <v>99</v>
+      </c>
+      <c r="E4">
+        <v>4053</v>
+      </c>
+      <c r="F4">
+        <v>256969</v>
+      </c>
+      <c r="G4">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D5">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>1844</v>
+      </c>
+      <c r="F5">
+        <v>90964</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D6">
+        <v>92</v>
+      </c>
+      <c r="E6">
+        <v>3146</v>
+      </c>
+      <c r="F6">
+        <v>198627</v>
+      </c>
+      <c r="G6">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D7">
+        <v>82</v>
+      </c>
+      <c r="E7">
+        <v>3423</v>
+      </c>
+      <c r="F7">
+        <v>216911</v>
+      </c>
+      <c r="G7">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D8">
+        <v>96</v>
+      </c>
+      <c r="E8">
+        <v>2169</v>
+      </c>
+      <c r="F8">
+        <v>131763</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D9">
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <v>2433</v>
+      </c>
+      <c r="F9">
+        <v>154305</v>
+      </c>
+      <c r="G9">
+        <v>28.9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D10">
+        <v>81</v>
+      </c>
+      <c r="E10">
+        <v>2122</v>
+      </c>
+      <c r="F10">
+        <v>133023</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>937</v>
+      </c>
+      <c r="F11">
+        <v>58664</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D13">
+        <v>391</v>
+      </c>
+      <c r="E13">
+        <v>10066</v>
+      </c>
+      <c r="F13">
+        <v>407753</v>
+      </c>
+      <c r="G13">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D14">
+        <v>204</v>
+      </c>
+      <c r="E14">
+        <v>4876</v>
+      </c>
+      <c r="F14">
+        <v>287382</v>
+      </c>
+      <c r="G14">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D15">
+        <v>72</v>
+      </c>
+      <c r="E15">
+        <v>2817</v>
+      </c>
+      <c r="F15">
+        <v>179404</v>
+      </c>
+      <c r="G15">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D16">
+        <v>180</v>
+      </c>
+      <c r="E16">
+        <v>4493</v>
+      </c>
+      <c r="F16">
+        <v>248311</v>
+      </c>
+      <c r="G16">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D17">
+        <v>97</v>
+      </c>
+      <c r="E17">
+        <v>3108</v>
+      </c>
+      <c r="F17">
+        <v>196990</v>
+      </c>
+      <c r="G17">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>882</v>
+      </c>
+      <c r="F18">
+        <v>56133</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D19">
+        <v>131</v>
+      </c>
+      <c r="E19">
+        <v>3012</v>
+      </c>
+      <c r="F19">
+        <v>189735</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D20">
+        <v>39</v>
+      </c>
+      <c r="E20">
+        <v>1413</v>
+      </c>
+      <c r="F20">
+        <v>89915</v>
+      </c>
+      <c r="G20">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>1600</v>
+      </c>
+      <c r="F21">
+        <v>100361</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>441</v>
+      </c>
+      <c r="F22">
+        <v>27753</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>2952</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D24">
+        <v>311</v>
+      </c>
+      <c r="E24">
+        <v>15446</v>
+      </c>
+      <c r="F24">
+        <v>803212</v>
+      </c>
+      <c r="G24">
+        <v>74.73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D25">
+        <v>321</v>
+      </c>
+      <c r="E25">
+        <v>16000</v>
+      </c>
+      <c r="F25">
+        <v>830333</v>
+      </c>
+      <c r="G25">
+        <v>83.20999999999999</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D2">
+        <v>345</v>
+      </c>
+      <c r="E2">
+        <v>14208</v>
+      </c>
+      <c r="F2">
+        <v>900544</v>
+      </c>
+      <c r="G2">
+        <v>901097</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D3">
+        <v>355</v>
+      </c>
+      <c r="E3">
+        <v>17674</v>
+      </c>
+      <c r="F3">
+        <v>915587</v>
+      </c>
+      <c r="G3">
+        <v>1093616</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D5">
+        <v>603</v>
+      </c>
+      <c r="E5">
+        <v>15416</v>
+      </c>
+      <c r="F5">
+        <v>785217</v>
+      </c>
+      <c r="G5">
+        <v>800236</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>2661</v>
+      </c>
+      <c r="G10">
+        <v>2704</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <v>2748</v>
+      </c>
+      <c r="G14">
+        <v>2792</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D15">
+        <v>216</v>
+      </c>
+      <c r="E15">
+        <v>4263</v>
+      </c>
+      <c r="F15">
+        <v>261458</v>
+      </c>
+      <c r="G15">
+        <v>265937</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>297</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>308</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D21">
+        <v>237</v>
+      </c>
+      <c r="E21">
+        <v>9304</v>
+      </c>
+      <c r="F21">
+        <v>592082.4</v>
+      </c>
+      <c r="G21">
+        <v>166.3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D22">
+        <v>330</v>
+      </c>
+      <c r="E22">
+        <v>16391</v>
+      </c>
+      <c r="F22">
+        <v>852382</v>
+      </c>
+      <c r="G22">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D24">
+        <v>745</v>
+      </c>
+      <c r="E24">
+        <v>18883</v>
+      </c>
+      <c r="F24">
+        <v>925551</v>
+      </c>
+      <c r="G24">
+        <v>135</v>
+      </c>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>61</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>70</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>72</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>73</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/division_overview.xlsx
+++ b/division_overview.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="58">
   <si>
     <t>earning_month</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>non_sub_pass</t>
+  </si>
+  <si>
+    <t>tc_cases</t>
+  </si>
+  <si>
+    <t>tc_amt</t>
+  </si>
+  <si>
+    <t>parcel_earning</t>
   </si>
   <si>
     <t>rakes</t>
@@ -1704,13 +1713,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1753,8 +1762,17 @@
       <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1800,8 +1818,17 @@
       <c r="O2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>33600</v>
+      </c>
+      <c r="Q2">
+        <v>1.85</v>
+      </c>
+      <c r="R2">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1847,8 +1874,17 @@
       <c r="O3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>33930</v>
+      </c>
+      <c r="Q3">
+        <v>1.85</v>
+      </c>
+      <c r="R3">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1894,8 +1930,17 @@
       <c r="O4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>27930</v>
+      </c>
+      <c r="Q4">
+        <v>2.15</v>
+      </c>
+      <c r="R4">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1941,8 +1986,17 @@
       <c r="O5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>18700</v>
+      </c>
+      <c r="Q5">
+        <v>1.55</v>
+      </c>
+      <c r="R5">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1988,8 +2042,17 @@
       <c r="O6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>19130</v>
+      </c>
+      <c r="Q6">
+        <v>1.55</v>
+      </c>
+      <c r="R6">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2035,8 +2098,17 @@
       <c r="O7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>24140</v>
+      </c>
+      <c r="Q7">
+        <v>1.9</v>
+      </c>
+      <c r="R7">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2082,8 +2154,17 @@
       <c r="O8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>29860</v>
+      </c>
+      <c r="Q8">
+        <v>2.2</v>
+      </c>
+      <c r="R8">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2129,8 +2210,17 @@
       <c r="O9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>24280</v>
+      </c>
+      <c r="Q9">
+        <v>2.4</v>
+      </c>
+      <c r="R9">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2176,8 +2266,17 @@
       <c r="O10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>21760</v>
+      </c>
+      <c r="Q10">
+        <v>1.6</v>
+      </c>
+      <c r="R10">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2223,8 +2322,17 @@
       <c r="O11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>25470</v>
+      </c>
+      <c r="Q11">
+        <v>1.8</v>
+      </c>
+      <c r="R11">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2270,8 +2378,17 @@
       <c r="O12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>25050</v>
+      </c>
+      <c r="Q12">
+        <v>1.8</v>
+      </c>
+      <c r="R12">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2316,6 +2433,15 @@
       </c>
       <c r="O13" t="s">
         <v>15</v>
+      </c>
+      <c r="P13">
+        <v>26390</v>
+      </c>
+      <c r="Q13">
+        <v>1.85</v>
+      </c>
+      <c r="R13">
+        <v>3.02</v>
       </c>
     </row>
   </sheetData>
@@ -2339,13 +2465,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2944,22 +3070,22 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
@@ -2988,7 +3114,7 @@
         <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -3017,7 +3143,7 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -3046,7 +3172,7 @@
         <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -3075,7 +3201,7 @@
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -3104,7 +3230,7 @@
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -3133,7 +3259,7 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -3162,7 +3288,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -3191,7 +3317,7 @@
         <v>28.9</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -3220,7 +3346,7 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -3249,7 +3375,7 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -3278,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -3307,7 +3433,7 @@
         <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -3336,7 +3462,7 @@
         <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -3365,7 +3491,7 @@
         <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -3394,7 +3520,7 @@
         <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -3423,7 +3549,7 @@
         <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -3452,7 +3578,7 @@
         <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -3481,7 +3607,7 @@
         <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
@@ -3510,7 +3636,7 @@
         <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
         <v>15</v>
@@ -3539,7 +3665,7 @@
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
@@ -3568,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -3597,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
         <v>15</v>
@@ -3626,7 +3752,7 @@
         <v>74.73</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
@@ -3655,7 +3781,7 @@
         <v>83.20999999999999</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -3679,22 +3805,22 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
@@ -3723,7 +3849,7 @@
         <v>901097</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -3752,7 +3878,7 @@
         <v>1093616</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -3781,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -3810,7 +3936,7 @@
         <v>800236</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -3839,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -3868,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -3897,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -3926,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -3955,7 +4081,7 @@
         <v>2704</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -3984,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -4013,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -4042,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -4071,7 +4197,7 @@
         <v>2792</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -4100,7 +4226,7 @@
         <v>265937</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -4129,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -4158,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -4187,7 +4313,7 @@
         <v>308</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -4216,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
@@ -4245,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I20" t="s">
         <v>15</v>
@@ -4274,7 +4400,7 @@
         <v>166.3</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
@@ -4303,7 +4429,7 @@
         <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -4332,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s">
         <v>15</v>
@@ -4361,7 +4487,7 @@
         <v>135</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
@@ -4390,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -4419,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
@@ -4448,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
         <v>15</v>
@@ -4477,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
@@ -4506,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
@@ -4535,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
         <v>15</v>
@@ -4564,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
         <v>15</v>
@@ -4593,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s">
         <v>15</v>
@@ -4622,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
@@ -4651,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
@@ -4680,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
@@ -4709,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I36" t="s">
         <v>15</v>
@@ -4738,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I37" t="s">
         <v>15</v>
@@ -4767,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
         <v>15</v>
@@ -4796,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I39" t="s">
         <v>15</v>

--- a/division_overview.xlsx
+++ b/division_overview.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="58">
   <si>
     <t>earning_month</t>
   </si>
@@ -1713,13 +1713,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="B1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="2:18">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1770,678 +1770,6 @@
       </c>
       <c r="R1" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45017</v>
-      </c>
-      <c r="D2">
-        <v>0.75</v>
-      </c>
-      <c r="E2">
-        <v>78.73</v>
-      </c>
-      <c r="F2">
-        <v>79.48</v>
-      </c>
-      <c r="G2">
-        <v>30.73</v>
-      </c>
-      <c r="H2">
-        <v>9.34</v>
-      </c>
-      <c r="I2">
-        <v>119.55</v>
-      </c>
-      <c r="J2">
-        <v>1.67</v>
-      </c>
-      <c r="K2">
-        <v>121.22</v>
-      </c>
-      <c r="L2">
-        <v>1.32</v>
-      </c>
-      <c r="M2">
-        <v>2.05</v>
-      </c>
-      <c r="N2">
-        <v>3.37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2">
-        <v>33600</v>
-      </c>
-      <c r="Q2">
-        <v>1.85</v>
-      </c>
-      <c r="R2">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45047</v>
-      </c>
-      <c r="D3">
-        <v>0.98</v>
-      </c>
-      <c r="E3">
-        <v>81.14</v>
-      </c>
-      <c r="F3">
-        <v>82.12</v>
-      </c>
-      <c r="G3">
-        <v>29.03</v>
-      </c>
-      <c r="H3">
-        <v>12.49</v>
-      </c>
-      <c r="I3">
-        <v>123.64</v>
-      </c>
-      <c r="J3">
-        <v>1.67</v>
-      </c>
-      <c r="K3">
-        <v>125.31</v>
-      </c>
-      <c r="L3">
-        <v>1.57</v>
-      </c>
-      <c r="M3">
-        <v>2.12</v>
-      </c>
-      <c r="N3">
-        <v>3.69</v>
-      </c>
-      <c r="O3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3">
-        <v>33930</v>
-      </c>
-      <c r="Q3">
-        <v>1.85</v>
-      </c>
-      <c r="R3">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45078</v>
-      </c>
-      <c r="D4">
-        <v>0.99</v>
-      </c>
-      <c r="E4">
-        <v>83.97</v>
-      </c>
-      <c r="F4">
-        <v>84.95999999999999</v>
-      </c>
-      <c r="G4">
-        <v>38.93</v>
-      </c>
-      <c r="H4">
-        <v>13.35</v>
-      </c>
-      <c r="I4">
-        <v>137.24</v>
-      </c>
-      <c r="J4">
-        <v>1.67</v>
-      </c>
-      <c r="K4">
-        <v>138.91</v>
-      </c>
-      <c r="L4">
-        <v>1.64</v>
-      </c>
-      <c r="M4">
-        <v>2.21</v>
-      </c>
-      <c r="N4">
-        <v>3.85</v>
-      </c>
-      <c r="O4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4">
-        <v>27930</v>
-      </c>
-      <c r="Q4">
-        <v>2.15</v>
-      </c>
-      <c r="R4">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45108</v>
-      </c>
-      <c r="D5">
-        <v>1.06</v>
-      </c>
-      <c r="E5">
-        <v>96.04000000000001</v>
-      </c>
-      <c r="F5">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="G5">
-        <v>44.73</v>
-      </c>
-      <c r="H5">
-        <v>10.13</v>
-      </c>
-      <c r="I5">
-        <v>151.96</v>
-      </c>
-      <c r="J5">
-        <v>1.67</v>
-      </c>
-      <c r="K5">
-        <v>153.63</v>
-      </c>
-      <c r="L5">
-        <v>1.64</v>
-      </c>
-      <c r="M5">
-        <v>2.56</v>
-      </c>
-      <c r="N5">
-        <v>4.2</v>
-      </c>
-      <c r="O5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5">
-        <v>18700</v>
-      </c>
-      <c r="Q5">
-        <v>1.55</v>
-      </c>
-      <c r="R5">
-        <v>4.11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45139</v>
-      </c>
-      <c r="D6">
-        <v>1.15</v>
-      </c>
-      <c r="E6">
-        <v>92.45999999999999</v>
-      </c>
-      <c r="F6">
-        <v>93.61</v>
-      </c>
-      <c r="G6">
-        <v>38.06</v>
-      </c>
-      <c r="H6">
-        <v>8.93</v>
-      </c>
-      <c r="I6">
-        <v>140.6</v>
-      </c>
-      <c r="J6">
-        <v>1.67</v>
-      </c>
-      <c r="K6">
-        <v>142.27</v>
-      </c>
-      <c r="L6">
-        <v>1.82</v>
-      </c>
-      <c r="M6">
-        <v>2.68</v>
-      </c>
-      <c r="N6">
-        <v>4.5</v>
-      </c>
-      <c r="O6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6">
-        <v>19130</v>
-      </c>
-      <c r="Q6">
-        <v>1.55</v>
-      </c>
-      <c r="R6">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45170</v>
-      </c>
-      <c r="D7">
-        <v>1.17</v>
-      </c>
-      <c r="E7">
-        <v>93.11</v>
-      </c>
-      <c r="F7">
-        <v>94.28</v>
-      </c>
-      <c r="G7">
-        <v>42.91</v>
-      </c>
-      <c r="H7">
-        <v>11.65</v>
-      </c>
-      <c r="I7">
-        <v>148.84</v>
-      </c>
-      <c r="J7">
-        <v>1.67</v>
-      </c>
-      <c r="K7">
-        <v>150.51</v>
-      </c>
-      <c r="L7">
-        <v>2.04</v>
-      </c>
-      <c r="M7">
-        <v>2.85</v>
-      </c>
-      <c r="N7">
-        <v>4.89</v>
-      </c>
-      <c r="O7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7">
-        <v>24140</v>
-      </c>
-      <c r="Q7">
-        <v>1.9</v>
-      </c>
-      <c r="R7">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D8">
-        <v>1.15</v>
-      </c>
-      <c r="E8">
-        <v>85.20999999999999</v>
-      </c>
-      <c r="F8">
-        <v>86.36</v>
-      </c>
-      <c r="G8">
-        <v>32.83</v>
-      </c>
-      <c r="H8">
-        <v>11.71</v>
-      </c>
-      <c r="I8">
-        <v>130.9</v>
-      </c>
-      <c r="J8">
-        <v>1.67</v>
-      </c>
-      <c r="K8">
-        <v>132.57</v>
-      </c>
-      <c r="L8">
-        <v>1.86</v>
-      </c>
-      <c r="M8">
-        <v>2.97</v>
-      </c>
-      <c r="N8">
-        <v>4.83</v>
-      </c>
-      <c r="O8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8">
-        <v>29860</v>
-      </c>
-      <c r="Q8">
-        <v>2.2</v>
-      </c>
-      <c r="R8">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45231</v>
-      </c>
-      <c r="D9">
-        <v>1.24</v>
-      </c>
-      <c r="E9">
-        <v>98.28</v>
-      </c>
-      <c r="F9">
-        <v>99.52</v>
-      </c>
-      <c r="G9">
-        <v>47.54</v>
-      </c>
-      <c r="H9">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="I9">
-        <v>156.53</v>
-      </c>
-      <c r="J9">
-        <v>1.67</v>
-      </c>
-      <c r="K9">
-        <v>158.2</v>
-      </c>
-      <c r="L9">
-        <v>2.15</v>
-      </c>
-      <c r="M9">
-        <v>3.2</v>
-      </c>
-      <c r="N9">
-        <v>5.35</v>
-      </c>
-      <c r="O9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9">
-        <v>24280</v>
-      </c>
-      <c r="Q9">
-        <v>2.4</v>
-      </c>
-      <c r="R9">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45261</v>
-      </c>
-      <c r="D10">
-        <v>1.22</v>
-      </c>
-      <c r="E10">
-        <v>98.34</v>
-      </c>
-      <c r="F10">
-        <v>99.56</v>
-      </c>
-      <c r="G10">
-        <v>40.64</v>
-      </c>
-      <c r="H10">
-        <v>9.76</v>
-      </c>
-      <c r="I10">
-        <v>149.96</v>
-      </c>
-      <c r="J10">
-        <v>1.67</v>
-      </c>
-      <c r="K10">
-        <v>151.63</v>
-      </c>
-      <c r="L10">
-        <v>2.08</v>
-      </c>
-      <c r="M10">
-        <v>3.14</v>
-      </c>
-      <c r="N10">
-        <v>5.22</v>
-      </c>
-      <c r="O10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10">
-        <v>21760</v>
-      </c>
-      <c r="Q10">
-        <v>1.6</v>
-      </c>
-      <c r="R10">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45292</v>
-      </c>
-      <c r="D11">
-        <v>1.22</v>
-      </c>
-      <c r="E11">
-        <v>102.2</v>
-      </c>
-      <c r="F11">
-        <v>103.42</v>
-      </c>
-      <c r="G11">
-        <v>31.64</v>
-      </c>
-      <c r="H11">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="I11">
-        <v>144.27</v>
-      </c>
-      <c r="J11">
-        <v>1.67</v>
-      </c>
-      <c r="K11">
-        <v>145.94</v>
-      </c>
-      <c r="L11">
-        <v>2.06</v>
-      </c>
-      <c r="M11">
-        <v>3.21</v>
-      </c>
-      <c r="N11">
-        <v>5.27</v>
-      </c>
-      <c r="O11" t="s">
-        <v>15</v>
-      </c>
-      <c r="P11">
-        <v>25470</v>
-      </c>
-      <c r="Q11">
-        <v>1.8</v>
-      </c>
-      <c r="R11">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45323</v>
-      </c>
-      <c r="D12">
-        <v>1.13</v>
-      </c>
-      <c r="E12">
-        <v>96.15000000000001</v>
-      </c>
-      <c r="F12">
-        <v>97.28</v>
-      </c>
-      <c r="G12">
-        <v>31.37</v>
-      </c>
-      <c r="H12">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="I12">
-        <v>136.93</v>
-      </c>
-      <c r="J12">
-        <v>1.67</v>
-      </c>
-      <c r="K12">
-        <v>138.6</v>
-      </c>
-      <c r="L12">
-        <v>1.91</v>
-      </c>
-      <c r="M12">
-        <v>2.85</v>
-      </c>
-      <c r="N12">
-        <v>4.76</v>
-      </c>
-      <c r="O12" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12">
-        <v>25050</v>
-      </c>
-      <c r="Q12">
-        <v>1.8</v>
-      </c>
-      <c r="R12">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45352</v>
-      </c>
-      <c r="D13">
-        <v>1.2</v>
-      </c>
-      <c r="E13">
-        <v>100.83</v>
-      </c>
-      <c r="F13">
-        <v>102.03</v>
-      </c>
-      <c r="G13">
-        <v>36.29</v>
-      </c>
-      <c r="H13">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="I13">
-        <v>148.03</v>
-      </c>
-      <c r="J13">
-        <v>1.67</v>
-      </c>
-      <c r="K13">
-        <v>149.7</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>3.13</v>
-      </c>
-      <c r="N13">
-        <v>5.13</v>
-      </c>
-      <c r="O13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13">
-        <v>26390</v>
-      </c>
-      <c r="Q13">
-        <v>1.85</v>
-      </c>
-      <c r="R13">
-        <v>3.02</v>
       </c>
     </row>
   </sheetData>

--- a/division_overview.xlsx
+++ b/division_overview.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="58">
   <si>
     <t>earning_month</t>
   </si>
@@ -1713,13 +1713,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:R1"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1770,6 +1770,678 @@
       </c>
       <c r="R1" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45017</v>
+      </c>
+      <c r="D2">
+        <v>0.75</v>
+      </c>
+      <c r="E2">
+        <v>78.73</v>
+      </c>
+      <c r="F2">
+        <v>79.48</v>
+      </c>
+      <c r="G2">
+        <v>30.73</v>
+      </c>
+      <c r="H2">
+        <v>9.34</v>
+      </c>
+      <c r="I2">
+        <v>119.55</v>
+      </c>
+      <c r="J2">
+        <v>1.67</v>
+      </c>
+      <c r="K2">
+        <v>121.22</v>
+      </c>
+      <c r="L2">
+        <v>1.32</v>
+      </c>
+      <c r="M2">
+        <v>2.05</v>
+      </c>
+      <c r="N2">
+        <v>3.37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>33600</v>
+      </c>
+      <c r="Q2">
+        <v>1.85</v>
+      </c>
+      <c r="R2">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D3">
+        <v>0.98</v>
+      </c>
+      <c r="E3">
+        <v>81.14</v>
+      </c>
+      <c r="F3">
+        <v>82.12</v>
+      </c>
+      <c r="G3">
+        <v>29.03</v>
+      </c>
+      <c r="H3">
+        <v>12.49</v>
+      </c>
+      <c r="I3">
+        <v>123.64</v>
+      </c>
+      <c r="J3">
+        <v>1.67</v>
+      </c>
+      <c r="K3">
+        <v>125.31</v>
+      </c>
+      <c r="L3">
+        <v>1.57</v>
+      </c>
+      <c r="M3">
+        <v>2.12</v>
+      </c>
+      <c r="N3">
+        <v>3.69</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3">
+        <v>33930</v>
+      </c>
+      <c r="Q3">
+        <v>1.85</v>
+      </c>
+      <c r="R3">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45078</v>
+      </c>
+      <c r="D4">
+        <v>0.99</v>
+      </c>
+      <c r="E4">
+        <v>83.97</v>
+      </c>
+      <c r="F4">
+        <v>84.95999999999999</v>
+      </c>
+      <c r="G4">
+        <v>38.93</v>
+      </c>
+      <c r="H4">
+        <v>13.35</v>
+      </c>
+      <c r="I4">
+        <v>137.24</v>
+      </c>
+      <c r="J4">
+        <v>1.67</v>
+      </c>
+      <c r="K4">
+        <v>138.91</v>
+      </c>
+      <c r="L4">
+        <v>1.64</v>
+      </c>
+      <c r="M4">
+        <v>2.21</v>
+      </c>
+      <c r="N4">
+        <v>3.85</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>27930</v>
+      </c>
+      <c r="Q4">
+        <v>2.15</v>
+      </c>
+      <c r="R4">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45108</v>
+      </c>
+      <c r="D5">
+        <v>1.06</v>
+      </c>
+      <c r="E5">
+        <v>96.04000000000001</v>
+      </c>
+      <c r="F5">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="G5">
+        <v>44.73</v>
+      </c>
+      <c r="H5">
+        <v>10.13</v>
+      </c>
+      <c r="I5">
+        <v>151.96</v>
+      </c>
+      <c r="J5">
+        <v>1.67</v>
+      </c>
+      <c r="K5">
+        <v>153.63</v>
+      </c>
+      <c r="L5">
+        <v>1.64</v>
+      </c>
+      <c r="M5">
+        <v>2.56</v>
+      </c>
+      <c r="N5">
+        <v>4.2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>18700</v>
+      </c>
+      <c r="Q5">
+        <v>1.55</v>
+      </c>
+      <c r="R5">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45139</v>
+      </c>
+      <c r="D6">
+        <v>1.15</v>
+      </c>
+      <c r="E6">
+        <v>92.45999999999999</v>
+      </c>
+      <c r="F6">
+        <v>93.61</v>
+      </c>
+      <c r="G6">
+        <v>38.06</v>
+      </c>
+      <c r="H6">
+        <v>8.93</v>
+      </c>
+      <c r="I6">
+        <v>140.6</v>
+      </c>
+      <c r="J6">
+        <v>1.67</v>
+      </c>
+      <c r="K6">
+        <v>142.27</v>
+      </c>
+      <c r="L6">
+        <v>1.82</v>
+      </c>
+      <c r="M6">
+        <v>2.68</v>
+      </c>
+      <c r="N6">
+        <v>4.5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6">
+        <v>19130</v>
+      </c>
+      <c r="Q6">
+        <v>1.55</v>
+      </c>
+      <c r="R6">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45170</v>
+      </c>
+      <c r="D7">
+        <v>1.17</v>
+      </c>
+      <c r="E7">
+        <v>93.11</v>
+      </c>
+      <c r="F7">
+        <v>94.28</v>
+      </c>
+      <c r="G7">
+        <v>42.91</v>
+      </c>
+      <c r="H7">
+        <v>11.65</v>
+      </c>
+      <c r="I7">
+        <v>148.84</v>
+      </c>
+      <c r="J7">
+        <v>1.67</v>
+      </c>
+      <c r="K7">
+        <v>150.51</v>
+      </c>
+      <c r="L7">
+        <v>2.04</v>
+      </c>
+      <c r="M7">
+        <v>2.85</v>
+      </c>
+      <c r="N7">
+        <v>4.89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7">
+        <v>24140</v>
+      </c>
+      <c r="Q7">
+        <v>1.9</v>
+      </c>
+      <c r="R7">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D8">
+        <v>1.15</v>
+      </c>
+      <c r="E8">
+        <v>85.20999999999999</v>
+      </c>
+      <c r="F8">
+        <v>86.36</v>
+      </c>
+      <c r="G8">
+        <v>32.83</v>
+      </c>
+      <c r="H8">
+        <v>11.71</v>
+      </c>
+      <c r="I8">
+        <v>130.9</v>
+      </c>
+      <c r="J8">
+        <v>1.67</v>
+      </c>
+      <c r="K8">
+        <v>132.57</v>
+      </c>
+      <c r="L8">
+        <v>1.86</v>
+      </c>
+      <c r="M8">
+        <v>2.97</v>
+      </c>
+      <c r="N8">
+        <v>4.83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8">
+        <v>29860</v>
+      </c>
+      <c r="Q8">
+        <v>2.2</v>
+      </c>
+      <c r="R8">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45231</v>
+      </c>
+      <c r="D9">
+        <v>1.24</v>
+      </c>
+      <c r="E9">
+        <v>98.28</v>
+      </c>
+      <c r="F9">
+        <v>99.52</v>
+      </c>
+      <c r="G9">
+        <v>47.54</v>
+      </c>
+      <c r="H9">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="I9">
+        <v>156.53</v>
+      </c>
+      <c r="J9">
+        <v>1.67</v>
+      </c>
+      <c r="K9">
+        <v>158.2</v>
+      </c>
+      <c r="L9">
+        <v>2.15</v>
+      </c>
+      <c r="M9">
+        <v>3.2</v>
+      </c>
+      <c r="N9">
+        <v>5.35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9">
+        <v>24280</v>
+      </c>
+      <c r="Q9">
+        <v>2.4</v>
+      </c>
+      <c r="R9">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45261</v>
+      </c>
+      <c r="D10">
+        <v>1.22</v>
+      </c>
+      <c r="E10">
+        <v>98.34</v>
+      </c>
+      <c r="F10">
+        <v>99.56</v>
+      </c>
+      <c r="G10">
+        <v>40.64</v>
+      </c>
+      <c r="H10">
+        <v>9.76</v>
+      </c>
+      <c r="I10">
+        <v>149.96</v>
+      </c>
+      <c r="J10">
+        <v>1.67</v>
+      </c>
+      <c r="K10">
+        <v>151.63</v>
+      </c>
+      <c r="L10">
+        <v>2.08</v>
+      </c>
+      <c r="M10">
+        <v>3.14</v>
+      </c>
+      <c r="N10">
+        <v>5.22</v>
+      </c>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10">
+        <v>21760</v>
+      </c>
+      <c r="Q10">
+        <v>1.6</v>
+      </c>
+      <c r="R10">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D11">
+        <v>1.22</v>
+      </c>
+      <c r="E11">
+        <v>102.2</v>
+      </c>
+      <c r="F11">
+        <v>103.42</v>
+      </c>
+      <c r="G11">
+        <v>31.64</v>
+      </c>
+      <c r="H11">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="I11">
+        <v>144.27</v>
+      </c>
+      <c r="J11">
+        <v>1.67</v>
+      </c>
+      <c r="K11">
+        <v>145.94</v>
+      </c>
+      <c r="L11">
+        <v>2.06</v>
+      </c>
+      <c r="M11">
+        <v>3.21</v>
+      </c>
+      <c r="N11">
+        <v>5.27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11">
+        <v>25470</v>
+      </c>
+      <c r="Q11">
+        <v>1.8</v>
+      </c>
+      <c r="R11">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45323</v>
+      </c>
+      <c r="D12">
+        <v>1.13</v>
+      </c>
+      <c r="E12">
+        <v>96.15000000000001</v>
+      </c>
+      <c r="F12">
+        <v>97.28</v>
+      </c>
+      <c r="G12">
+        <v>31.37</v>
+      </c>
+      <c r="H12">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="I12">
+        <v>136.93</v>
+      </c>
+      <c r="J12">
+        <v>1.67</v>
+      </c>
+      <c r="K12">
+        <v>138.6</v>
+      </c>
+      <c r="L12">
+        <v>1.91</v>
+      </c>
+      <c r="M12">
+        <v>2.85</v>
+      </c>
+      <c r="N12">
+        <v>4.76</v>
+      </c>
+      <c r="O12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12">
+        <v>25050</v>
+      </c>
+      <c r="Q12">
+        <v>1.8</v>
+      </c>
+      <c r="R12">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D13">
+        <v>1.2</v>
+      </c>
+      <c r="E13">
+        <v>100.83</v>
+      </c>
+      <c r="F13">
+        <v>102.03</v>
+      </c>
+      <c r="G13">
+        <v>36.29</v>
+      </c>
+      <c r="H13">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="I13">
+        <v>148.03</v>
+      </c>
+      <c r="J13">
+        <v>1.67</v>
+      </c>
+      <c r="K13">
+        <v>149.7</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>3.13</v>
+      </c>
+      <c r="N13">
+        <v>5.13</v>
+      </c>
+      <c r="O13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13">
+        <v>26390</v>
+      </c>
+      <c r="Q13">
+        <v>1.85</v>
+      </c>
+      <c r="R13">
+        <v>3.02</v>
       </c>
     </row>
   </sheetData>
